--- a/data/trans_bre/P41E_2023_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P41E_2023_R-Clase-trans_bre.xlsx
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.482556082851674</v>
+        <v>-2.390997411005151</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-0.3392741946018652</v>
+        <v>-0.3429235608823711</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.153877692066595</v>
+        <v>4.288931407405547</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1.030297637220218</v>
+        <v>1.093786148870655</v>
       </c>
     </row>
     <row r="7">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>-3.940157569821011</v>
+        <v>-3.940157569821012</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>-0.3757291452615297</v>
+        <v>-0.3757291452615298</v>
       </c>
     </row>
     <row r="8">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-8.430195086398298</v>
+        <v>-8.777232040743236</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.6513293195864794</v>
+        <v>-0.6677871035039703</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3838144506234353</v>
+        <v>0.2156375351636378</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.07354854275275706</v>
+        <v>0.04192516185965035</v>
       </c>
     </row>
     <row r="10">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.999912091774716</v>
+        <v>-2.320564560142856</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>-0.1464670850614504</v>
+        <v>-0.166375969799339</v>
       </c>
     </row>
     <row r="12">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>12.65064684663063</v>
+        <v>12.88567844198538</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>1.131415244175955</v>
+        <v>1.187324550797477</v>
       </c>
     </row>
     <row r="13">
@@ -690,10 +690,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>-4.970214772828251</v>
+        <v>-4.970214772828249</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>-0.3980443242584252</v>
+        <v>-0.3980443242584251</v>
       </c>
     </row>
     <row r="14">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-8.347473356060801</v>
+        <v>-8.30346382096918</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.5822640748480286</v>
+        <v>-0.5885009930201341</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-1.477029097042516</v>
+        <v>-1.241921139967054</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.122881017081178</v>
+        <v>-0.1169988613437835</v>
       </c>
     </row>
     <row r="16">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>2.918429496590488</v>
+        <v>2.918429496590483</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>0.1989437617070949</v>
+        <v>0.1989437617070945</v>
       </c>
     </row>
     <row r="17">
@@ -750,10 +750,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.351876807152416</v>
+        <v>-1.865214091504243</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>-0.1393723638210969</v>
+        <v>-0.1036928782742895</v>
       </c>
     </row>
     <row r="18">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.885932349103726</v>
+        <v>7.786850523682824</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>0.686553248638848</v>
+        <v>0.6738941485891372</v>
       </c>
     </row>
     <row r="19">
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>9.771332155564851</v>
+        <v>9.771332155564853</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.8498297741738754</v>
+        <v>0.8498297741738756</v>
       </c>
     </row>
     <row r="20">
@@ -796,10 +796,10 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-5.628307477144043</v>
+        <v>-7.456813492855504</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2412478638347585</v>
+        <v>-0.2937500683137942</v>
       </c>
     </row>
     <row r="21">
@@ -810,10 +810,10 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>18.80242095299211</v>
+        <v>19.06733973349467</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>5.111714834938207</v>
+        <v>5.305013768362898</v>
       </c>
     </row>
     <row r="22">
@@ -842,10 +842,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.6574413169905308</v>
+        <v>-0.6397987533901347</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>-0.05352084303705507</v>
+        <v>-0.05185739186327825</v>
       </c>
     </row>
     <row r="24">
@@ -856,10 +856,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.340095869513215</v>
+        <v>3.147933305899161</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>0.3267893834710727</v>
+        <v>0.306322109073533</v>
       </c>
     </row>
     <row r="25">
